--- a/.xlsx/itd_time_percent.xlsx
+++ b/.xlsx/itd_time_percent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\stock_db\.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\py-app\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458F3F0-625D-4F03-A28E-64684C4D2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBDEFD1-74C3-4A56-BF3E-5315BD00CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,14 +394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +413,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45708.624305555553</v>
+        <v>45729.625</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -422,2170 +421,2170 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45708.623611111107</v>
+        <v>45729.624305555553</v>
       </c>
       <c r="B3">
-        <v>0.99996156374678902</v>
+        <v>0.9999865090746709</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45708.622916666667</v>
+        <v>45729.623611111107</v>
       </c>
       <c r="B4">
-        <v>0.99986939440799094</v>
+        <v>0.99966041413671669</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45708.62222222222</v>
+        <v>45729.622916666667</v>
       </c>
       <c r="B5">
-        <v>0.99972559765118907</v>
+        <v>0.99941719202578383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45708.621527777781</v>
+        <v>45729.62222222222</v>
       </c>
       <c r="B6">
-        <v>0.99943434718100888</v>
+        <v>0.9993273810085932</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45708.620833333327</v>
+        <v>45729.621527777781</v>
       </c>
       <c r="B7">
-        <v>0.99918750261211187</v>
+        <v>0.99905370795191761</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45708.620138888888</v>
+        <v>45729.620833333327</v>
       </c>
       <c r="B8">
-        <v>0.99902006624315631</v>
+        <v>0.99899242060542259</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45708.619444444441</v>
+        <v>45729.620138888888</v>
       </c>
       <c r="B9">
-        <v>0.99872346094370379</v>
+        <v>0.99877752943768083</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45708.618750000001</v>
+        <v>45729.619444444441</v>
       </c>
       <c r="B10">
-        <v>0.99823813056379818</v>
+        <v>0.99864030745433374</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45708.618055555547</v>
+        <v>45729.618750000001</v>
       </c>
       <c r="B11">
-        <v>0.9979198447360722</v>
+        <v>0.99824309606714468</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45708.617361111108</v>
+        <v>45729.618055555547</v>
       </c>
       <c r="B12">
-        <v>0.99776337923684544</v>
+        <v>0.99810876499636803</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45708.616666666669</v>
+        <v>45729.617361111108</v>
       </c>
       <c r="B13">
-        <v>0.99758797592677728</v>
+        <v>0.99783721194224417</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45708.615972222222</v>
+        <v>45729.616666666669</v>
       </c>
       <c r="B14">
-        <v>0.99745149308312786</v>
+        <v>0.99765065171769352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45708.615277777782</v>
+        <v>45729.615972222222</v>
       </c>
       <c r="B15">
-        <v>0.99716625047018015</v>
+        <v>0.99749415698387622</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45708.614583333343</v>
+        <v>45729.615277777782</v>
       </c>
       <c r="B16">
-        <v>0.9970229761357462</v>
+        <v>0.99734681680653225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45708.613888888889</v>
+        <v>45729.614583333343</v>
       </c>
       <c r="B17">
-        <v>0.94518587787854724</v>
+        <v>0.99711959107848958</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45708.613194444442</v>
+        <v>45729.613888888889</v>
       </c>
       <c r="B18">
-        <v>0.94507669160362773</v>
+        <v>0.93772685231850228</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45708.612500000003</v>
+        <v>45729.613194444442</v>
       </c>
       <c r="B19">
-        <v>0.94485766602582855</v>
+        <v>0.9375633230307634</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45708.611805555563</v>
+        <v>45729.612500000003</v>
       </c>
       <c r="B20">
-        <v>0.94465457433025457</v>
+        <v>0.93742051194977982</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45708.611111111109</v>
+        <v>45729.611805555563</v>
       </c>
       <c r="B21">
-        <v>0.944503071843524</v>
+        <v>0.93691855316378581</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45708.61041666667</v>
+        <v>45729.611111111109</v>
       </c>
       <c r="B22">
-        <v>0.94427908325322862</v>
+        <v>0.93665981648872454</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45708.609722222223</v>
+        <v>45729.61041666667</v>
       </c>
       <c r="B23">
-        <v>0.944083566681991</v>
+        <v>0.93628920149718431</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45708.609027777777</v>
+        <v>45729.609722222223</v>
       </c>
       <c r="B24">
-        <v>0.94397738433568767</v>
+        <v>0.93610803764276529</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45708.60833333333</v>
+        <v>45729.609027777777</v>
       </c>
       <c r="B25">
-        <v>0.94388596042128137</v>
+        <v>0.93596686474557178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45708.607638888891</v>
+        <v>45729.60833333333</v>
       </c>
       <c r="B26">
-        <v>0.94373550277928697</v>
+        <v>0.93584342277881072</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45708.606944444437</v>
+        <v>45729.607638888891</v>
       </c>
       <c r="B27">
-        <v>0.94348539307058976</v>
+        <v>0.93574821539148834</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45708.606249999997</v>
+        <v>45729.606944444437</v>
       </c>
       <c r="B28">
-        <v>0.94284973565428176</v>
+        <v>0.9356803753098335</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45708.605555555558</v>
+        <v>45729.606249999997</v>
       </c>
       <c r="B29">
-        <v>0.94252400530781122</v>
+        <v>0.9354781077936497</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45708.604861111111</v>
+        <v>45729.605555555558</v>
       </c>
       <c r="B30">
-        <v>0.94245086617628615</v>
+        <v>0.93535668946568806</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45708.604166666657</v>
+        <v>45729.604861111111</v>
       </c>
       <c r="B31">
-        <v>0.94192230534542565</v>
+        <v>0.9352248638524725</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45708.603472222218</v>
+        <v>45729.604166666657</v>
       </c>
       <c r="B32">
-        <v>0.9415675805575292</v>
+        <v>0.93497133082003814</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45708.602777777778</v>
+        <v>45729.603472222218</v>
       </c>
       <c r="B33">
-        <v>0.93238339532745429</v>
+        <v>0.93457961216673324</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45708.602083333331</v>
+        <v>45729.602777777778</v>
       </c>
       <c r="B34">
-        <v>0.92573400342709078</v>
+        <v>0.92286226169966767</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45708.601388888892</v>
+        <v>45729.602083333331</v>
       </c>
       <c r="B35">
-        <v>0.91923075918418518</v>
+        <v>0.90914170154873897</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45708.600694444453</v>
+        <v>45729.601388888892</v>
       </c>
       <c r="B36">
-        <v>0.91123443181343255</v>
+        <v>0.89205554098321482</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45708.6</v>
+        <v>45729.600694444453</v>
       </c>
       <c r="B37">
-        <v>0.9040673193463451</v>
+        <v>0.8731980219219827</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45708.599305555559</v>
+        <v>45729.599999999999</v>
       </c>
       <c r="B38">
-        <v>0.89887692251431439</v>
+        <v>0.85024417611208103</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45708.598611111112</v>
+        <v>45729.599305555559</v>
       </c>
       <c r="B39">
-        <v>0.89326558385923849</v>
+        <v>0.83220700167460926</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45708.597916666673</v>
+        <v>45729.598611111112</v>
       </c>
       <c r="B40">
-        <v>0.88826587119154099</v>
+        <v>0.81810638288440996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45708.597222222219</v>
+        <v>45729.597916666673</v>
       </c>
       <c r="B41">
-        <v>0.88363982112258121</v>
+        <v>0.81004295317897268</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45708.59652777778</v>
+        <v>45729.597222222219</v>
       </c>
       <c r="B42">
-        <v>0.87550674969699505</v>
+        <v>0.8035873526815045</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45708.595833333333</v>
+        <v>45729.59652777778</v>
       </c>
       <c r="B43">
-        <v>0.86934020667028877</v>
+        <v>0.79869997588978914</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45708.595138888893</v>
+        <v>45729.595833333333</v>
       </c>
       <c r="B44">
-        <v>0.86336500083587575</v>
+        <v>0.7941044849039437</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45708.594444444447</v>
+        <v>45729.595138888893</v>
       </c>
       <c r="B45">
-        <v>0.85683563547456842</v>
+        <v>0.78899190602298508</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45708.59375</v>
+        <v>45729.594444444447</v>
       </c>
       <c r="B46">
-        <v>0.84884178961006396</v>
+        <v>0.78538568531877029</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45708.593055555553</v>
+        <v>45729.59375</v>
       </c>
       <c r="B47">
-        <v>0.8425745496719188</v>
+        <v>0.78179883372877801</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45708.592361111107</v>
+        <v>45729.593055555553</v>
       </c>
       <c r="B48">
-        <v>0.83587409098507959</v>
+        <v>0.77864754629941024</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45708.591666666667</v>
+        <v>45729.592361111107</v>
       </c>
       <c r="B49">
-        <v>0.83016074936264472</v>
+        <v>0.77532916412346664</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45708.59097222222</v>
+        <v>45729.591666666667</v>
       </c>
       <c r="B50">
-        <v>0.82552882204204459</v>
+        <v>0.77192183820410343</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45708.590277777781</v>
+        <v>45729.59097222222</v>
       </c>
       <c r="B51">
-        <v>0.81906920006687012</v>
+        <v>0.76896992737834891</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45708.589583333327</v>
+        <v>45729.590277777781</v>
       </c>
       <c r="B52">
-        <v>0.81294810778618298</v>
+        <v>0.76566946886034248</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45708.588888888888</v>
+        <v>45729.589583333327</v>
       </c>
       <c r="B53">
-        <v>0.80789145108036942</v>
+        <v>0.76181732786012912</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45708.588194444441</v>
+        <v>45729.588888888888</v>
       </c>
       <c r="B54">
-        <v>0.80326762130647389</v>
+        <v>0.75604379000179811</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45708.587500000001</v>
+        <v>45729.588194444441</v>
       </c>
       <c r="B55">
-        <v>0.79811340222342964</v>
+        <v>0.75132023158907879</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45708.586805555547</v>
+        <v>45729.587500000001</v>
       </c>
       <c r="B56">
-        <v>0.79307307121661719</v>
+        <v>0.74801206397088427</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45708.586111111108</v>
+        <v>45729.586805555547</v>
       </c>
       <c r="B57">
-        <v>0.78876243365235921</v>
+        <v>0.74340317842346204</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45708.585416666669</v>
+        <v>45729.586111111108</v>
       </c>
       <c r="B58">
-        <v>0.78406951352029086</v>
+        <v>0.7371501345334347</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45708.584722222222</v>
+        <v>45729.585416666669</v>
       </c>
       <c r="B59">
-        <v>0.77686596209303294</v>
+        <v>0.72980365114548551</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45708.584027777782</v>
+        <v>45729.584722222222</v>
       </c>
       <c r="B60">
-        <v>0.77069889664395874</v>
+        <v>0.72276235176123071</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45708.583333333343</v>
+        <v>45729.584027777782</v>
       </c>
       <c r="B61">
-        <v>0.76478520604338196</v>
+        <v>0.71469371841316653</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45708.582638888889</v>
+        <v>45729.583333333343</v>
       </c>
       <c r="B62">
-        <v>0.75941378986082664</v>
+        <v>0.70582748228689685</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45708.581944444442</v>
+        <v>45729.582638888889</v>
       </c>
       <c r="B63">
-        <v>0.75637081017260832</v>
+        <v>0.6993934672699551</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45708.581250000003</v>
+        <v>45729.581944444442</v>
       </c>
       <c r="B64">
-        <v>0.75121815835666816</v>
+        <v>0.69311739244311599</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>45708.580555555563</v>
+        <v>45729.581250000003</v>
       </c>
       <c r="B65">
-        <v>0.74640364441843943</v>
+        <v>0.68781912061137795</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45708.579861111109</v>
+        <v>45729.580555555563</v>
       </c>
       <c r="B66">
-        <v>0.74286697559242698</v>
+        <v>0.6833138260977325</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45708.57916666667</v>
+        <v>45729.579861111109</v>
       </c>
       <c r="B67">
-        <v>0.73994180214820082</v>
+        <v>0.67903903367970964</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45708.578472222223</v>
+        <v>45729.57916666667</v>
       </c>
       <c r="B68">
-        <v>0.73712503134534213</v>
+        <v>0.67440740628673268</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>45708.577777777777</v>
+        <v>45729.578472222223</v>
       </c>
       <c r="B69">
-        <v>0.73431191749905966</v>
+        <v>0.67136780444633914</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45708.57708333333</v>
+        <v>45729.577777777777</v>
       </c>
       <c r="B70">
-        <v>0.73129884649141141</v>
+        <v>0.66760219809573662</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45708.576388888891</v>
+        <v>45729.57708333333</v>
       </c>
       <c r="B71">
-        <v>0.72771111087892337</v>
+        <v>0.66503140591052856</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45708.575694444437</v>
+        <v>45729.576388888891</v>
       </c>
       <c r="B72">
-        <v>0.72416843419567856</v>
+        <v>0.66293771066320806</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>45708.574999999997</v>
+        <v>45729.575694444437</v>
       </c>
       <c r="B73">
-        <v>0.72118788398044054</v>
+        <v>0.66003070534604902</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>45708.574305555558</v>
+        <v>45729.574999999997</v>
       </c>
       <c r="B74">
-        <v>0.71666671020186401</v>
+        <v>0.65730920025216466</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>45708.573611111111</v>
+        <v>45729.574305555558</v>
       </c>
       <c r="B75">
-        <v>0.71103499707443474</v>
+        <v>0.65396142713175409</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>45708.572916666657</v>
+        <v>45729.573611111111</v>
       </c>
       <c r="B76">
-        <v>0.70752601663392822</v>
+        <v>0.65102223632130984</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>45708.572222222218</v>
+        <v>45729.572916666657</v>
       </c>
       <c r="B77">
-        <v>0.70456544907426755</v>
+        <v>0.64815589650764271</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>45708.571527777778</v>
+        <v>45729.572222222218</v>
       </c>
       <c r="B78">
-        <v>0.70143222092197099</v>
+        <v>0.64439809562098049</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>45708.570833333331</v>
+        <v>45729.571527777778</v>
       </c>
       <c r="B79">
-        <v>0.69826673318844823</v>
+        <v>0.64140715747552413</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>45708.570138888892</v>
+        <v>45729.570833333331</v>
       </c>
       <c r="B80">
-        <v>0.69417890876415766</v>
+        <v>0.63824315003084608</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>45708.569444444453</v>
+        <v>45729.570138888892</v>
       </c>
       <c r="B81">
-        <v>0.69113932482133156</v>
+        <v>0.63484594230547964</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>45708.568749999999</v>
+        <v>45729.569444444453</v>
       </c>
       <c r="B82">
-        <v>0.68790970974213228</v>
+        <v>0.62978761621709445</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>45708.568055555559</v>
+        <v>45729.568749999999</v>
       </c>
       <c r="B83">
-        <v>0.68467630710076488</v>
+        <v>0.62558336206579213</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>45708.567361111112</v>
+        <v>45729.568055555559</v>
       </c>
       <c r="B84">
-        <v>0.68141691394658754</v>
+        <v>0.62170462466993004</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>45708.566666666673</v>
+        <v>45729.567361111112</v>
       </c>
       <c r="B85">
-        <v>0.67782695803903537</v>
+        <v>0.61799221111062497</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>45708.565972222219</v>
+        <v>45729.566666666673</v>
       </c>
       <c r="B86">
-        <v>0.67465781334893637</v>
+        <v>0.61322625264687136</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>45708.56527777778</v>
+        <v>45729.565972222219</v>
       </c>
       <c r="B87">
-        <v>0.6709988976888035</v>
+        <v>0.60754474217203513</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>45708.564583333333</v>
+        <v>45729.56527777778</v>
       </c>
       <c r="B88">
-        <v>0.66770280436327156</v>
+        <v>0.60067217571814602</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>45708.563888888893</v>
+        <v>45729.564583333333</v>
       </c>
       <c r="B89">
-        <v>0.66380670894805027</v>
+        <v>0.5958487844579915</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>45708.563194444447</v>
+        <v>45729.563888888893</v>
       </c>
       <c r="B90">
-        <v>0.66028832490491918</v>
+        <v>0.58879987233730091</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>45708.5625</v>
+        <v>45729.563194444447</v>
       </c>
       <c r="B91">
-        <v>0.6563877888995695</v>
+        <v>0.58195660046412634</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>45708.561805555553</v>
+        <v>45729.5625</v>
       </c>
       <c r="B92">
-        <v>0.65322256237723075</v>
+        <v>0.57629050818966621</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>45708.561111111107</v>
+        <v>45729.561805555553</v>
       </c>
       <c r="B93">
-        <v>0.64929590525347936</v>
+        <v>0.57229266519589883</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>45708.560416666667</v>
+        <v>45729.561111111107</v>
       </c>
       <c r="B94">
-        <v>0.64581970681656709</v>
+        <v>0.56548071154223822</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>45708.55972222222</v>
+        <v>45729.560416666667</v>
       </c>
       <c r="B95">
-        <v>0.64314908367116641</v>
+        <v>0.56073412219270713</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>45708.559027777781</v>
+        <v>45729.55972222222</v>
       </c>
       <c r="B96">
-        <v>0.64007227713461778</v>
+        <v>0.55692043032968164</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>45708.558333333327</v>
+        <v>45729.559027777781</v>
       </c>
       <c r="B97">
-        <v>0.63721371254231618</v>
+        <v>0.55300574925419277</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>45708.557638888888</v>
+        <v>45729.558333333327</v>
       </c>
       <c r="B98">
-        <v>0.63353585907134202</v>
+        <v>0.54802133416386034</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>45708.556944444441</v>
+        <v>45729.557638888888</v>
       </c>
       <c r="B99">
-        <v>0.63031264366615125</v>
+        <v>0.54334268125973639</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>45708.556250000001</v>
+        <v>45729.556944444441</v>
       </c>
       <c r="B100">
-        <v>0.62721102206712087</v>
+        <v>0.5383359097788587</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>45708.555555555547</v>
+        <v>45729.556250000001</v>
       </c>
       <c r="B101">
-        <v>0.62314931876123203</v>
+        <v>0.53190864022458151</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>45708.554861111108</v>
+        <v>45729.555555555547</v>
       </c>
       <c r="B102">
-        <v>0.61893846386926898</v>
+        <v>0.52441924939189655</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>45708.554166666669</v>
+        <v>45729.554861111108</v>
       </c>
       <c r="B103">
-        <v>0.61348607221966811</v>
+        <v>0.51817536005834242</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>45708.553472222222</v>
+        <v>45729.554166666669</v>
       </c>
       <c r="B104">
-        <v>0.60977961612404397</v>
+        <v>0.51275923535747969</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>45708.552777777782</v>
+        <v>45729.553472222222</v>
       </c>
       <c r="B105">
-        <v>0.60584094328582772</v>
+        <v>0.5082665644953922</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>45708.552083333343</v>
+        <v>45729.552777777782</v>
       </c>
       <c r="B106">
-        <v>0.60205547080703803</v>
+        <v>0.50382708642460217</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>45708.551388888889</v>
+        <v>45729.552083333343</v>
       </c>
       <c r="B107">
-        <v>0.59807265327872283</v>
+        <v>0.5004097386749945</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>45708.550694444442</v>
+        <v>45729.551388888889</v>
       </c>
       <c r="B108">
-        <v>0.59423794249174577</v>
+        <v>0.49699113819660629</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>45708.55</v>
+        <v>45729.550694444442</v>
       </c>
       <c r="B109">
-        <v>0.59047624023070167</v>
+        <v>0.49329443192893441</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>45708.549305555563</v>
+        <v>45729.55</v>
       </c>
       <c r="B110">
-        <v>0.58616991265098006</v>
+        <v>0.48931480168436131</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>45708.548611111109</v>
+        <v>45729.549305555563</v>
       </c>
       <c r="B111">
-        <v>0.58038669703682033</v>
+        <v>0.48542083881562781</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>45708.54791666667</v>
+        <v>45729.548611111109</v>
       </c>
       <c r="B112">
-        <v>0.57535250449283237</v>
+        <v>0.48060409665438542</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>45708.547222222223</v>
+        <v>45729.54791666667</v>
       </c>
       <c r="B113">
-        <v>0.57201631525055374</v>
+        <v>0.47729747085622848</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>45708.546527777777</v>
+        <v>45729.547222222223</v>
       </c>
       <c r="B114">
-        <v>0.56801103356041294</v>
+        <v>0.47195660624595148</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>45708.54583333333</v>
+        <v>45729.546527777777</v>
       </c>
       <c r="B115">
-        <v>0.56428799055460355</v>
+        <v>0.46766649199130489</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>45708.545138888891</v>
+        <v>45729.54583333333</v>
       </c>
       <c r="B116">
-        <v>0.56042624441008071</v>
+        <v>0.46351321426499609</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>45708.544444444437</v>
+        <v>45729.545138888891</v>
       </c>
       <c r="B117">
-        <v>0.55749963430434235</v>
+        <v>0.46040153233784442</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>45708.543749999997</v>
+        <v>45729.544444444437</v>
       </c>
       <c r="B118">
-        <v>0.55439409453755173</v>
+        <v>0.45573531035777348</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>45708.543055555558</v>
+        <v>45729.543749999997</v>
       </c>
       <c r="B119">
-        <v>0.54608196284532118</v>
+        <v>0.45168273275267112</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>45708.542361111111</v>
+        <v>45729.543055555558</v>
       </c>
       <c r="B120">
-        <v>0.54233397417143814</v>
+        <v>0.44652833200319242</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>45708.541666666657</v>
+        <v>45729.542361111111</v>
       </c>
       <c r="B121">
-        <v>0.53859068729886739</v>
+        <v>0.44183917545006213</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>45707.479166666664</v>
+        <v>45729.541666666657</v>
       </c>
       <c r="B122">
-        <v>0.53675881117565905</v>
+        <v>0.43715262071824529</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>45708.478472222225</v>
+        <v>45729.479166666657</v>
       </c>
       <c r="B123">
-        <v>0.53355881117565895</v>
+        <v>0.42121935608584321</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>45708.478472222225</v>
+        <v>45729.478472222218</v>
       </c>
       <c r="B124">
-        <v>0.53035881117565897</v>
+        <v>0.42095088667179448</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>45708.477777777778</v>
+        <v>45729.477777777778</v>
       </c>
       <c r="B125">
-        <v>0.52815881117565899</v>
+        <v>0.41763028812954678</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45708.477083333331</v>
+        <v>45729.477083333331</v>
       </c>
       <c r="B126">
-        <v>0.52665881117565905</v>
+        <v>0.41456081352592472</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>45708.476388888892</v>
+        <v>45729.476388888892</v>
       </c>
       <c r="B127">
-        <v>0.52465881117565905</v>
+        <v>0.41189375395211841</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>45708.475694444453</v>
+        <v>45729.475694444453</v>
       </c>
       <c r="B128">
-        <v>0.52265881117565904</v>
+        <v>0.41006814266383718</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>45708.474999999999</v>
+        <v>45729.474999999999</v>
       </c>
       <c r="B129">
-        <v>0.52066546161240435</v>
+        <v>0.40716460644176272</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>45708.474305555559</v>
+        <v>45729.474305555559</v>
       </c>
       <c r="B130">
-        <v>0.5183393760187236</v>
+        <v>0.405118129433094</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>45708.473611111112</v>
+        <v>45729.473611111112</v>
       </c>
       <c r="B131">
-        <v>0.51454254085342921</v>
+        <v>0.40335236003502251</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>45708.472916666673</v>
+        <v>45729.472916666673</v>
       </c>
       <c r="B132">
-        <v>0.51099738266393613</v>
+        <v>0.4011349337296839</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>45708.472222222219</v>
+        <v>45729.472222222219</v>
       </c>
       <c r="B133">
-        <v>0.50722105257658712</v>
+        <v>0.39923994053971018</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>45708.47152777778</v>
+        <v>45729.47152777778</v>
       </c>
       <c r="B134">
-        <v>0.5035872131901199</v>
+        <v>0.39745036929480809</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>45708.470833333333</v>
+        <v>45729.470833333333</v>
       </c>
       <c r="B135">
-        <v>0.50025925210013789</v>
+        <v>0.39586258374732808</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>45708.470138888893</v>
+        <v>45729.470138888893</v>
       </c>
       <c r="B136">
-        <v>0.49709206649391902</v>
+        <v>0.39391883049866511</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>45708.469444444447</v>
+        <v>45729.469444444447</v>
       </c>
       <c r="B137">
-        <v>0.49403458958498769</v>
+        <v>0.39139265473079532</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>45708.46875</v>
+        <v>45729.46875</v>
       </c>
       <c r="B138">
-        <v>0.48951380762318719</v>
+        <v>0.38934675590464068</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>45708.468055555553</v>
+        <v>45729.468055555553</v>
       </c>
       <c r="B139">
-        <v>0.48357556317131267</v>
+        <v>0.38724564064838929</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>45708.467361111107</v>
+        <v>45729.467361111107</v>
       </c>
       <c r="B140">
-        <v>0.4791735016926485</v>
+        <v>0.38534438381451291</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>45708.466666666667</v>
+        <v>45729.466666666667</v>
       </c>
       <c r="B141">
-        <v>0.47579055564843059</v>
+        <v>0.38416864967208381</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>45708.46597222222</v>
+        <v>45729.46597222222</v>
       </c>
       <c r="B142">
-        <v>0.47165035838174452</v>
+        <v>0.3815392683254466</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>45708.465277777781</v>
+        <v>45729.465277777781</v>
       </c>
       <c r="B143">
-        <v>0.46812165649684462</v>
+        <v>0.37926845650130581</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>45708.464583333327</v>
+        <v>45729.464583333327</v>
       </c>
       <c r="B144">
-        <v>0.46227170142516821</v>
+        <v>0.37572448678110948</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>45708.463888888888</v>
+        <v>45729.463888888888</v>
       </c>
       <c r="B145">
-        <v>0.45783620491494958</v>
+        <v>0.37258948482588899</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>45708.463194444441</v>
+        <v>45729.463194444441</v>
       </c>
       <c r="B146">
-        <v>0.45205716867973422</v>
+        <v>0.36978799781755373</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>45708.462500000001</v>
+        <v>45729.462500000001</v>
       </c>
       <c r="B147">
-        <v>0.44509641304802111</v>
+        <v>0.36680910514114112</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>45708.461805555547</v>
+        <v>45729.461805555547</v>
       </c>
       <c r="B148">
-        <v>0.44108538471183178</v>
+        <v>0.36362515039972648</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>45708.461111111108</v>
+        <v>45729.461111111108</v>
       </c>
       <c r="B149">
-        <v>0.43671832553182599</v>
+        <v>0.36003193880207912</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>45708.460416666669</v>
+        <v>45729.460416666669</v>
       </c>
       <c r="B150">
-        <v>0.4327662003176328</v>
+        <v>0.35482010525619939</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>45708.459722222222</v>
+        <v>45729.459722222222</v>
       </c>
       <c r="B151">
-        <v>0.42943210076482641</v>
+        <v>0.35059918017574049</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>45708.459027777782</v>
+        <v>45729.459027777782</v>
       </c>
       <c r="B152">
-        <v>0.42590157040163829</v>
+        <v>0.34525282283157949</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>45708.458333333343</v>
+        <v>45729.458333333343</v>
       </c>
       <c r="B153">
-        <v>0.42323434300162988</v>
+        <v>0.33871174768577628</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>45708.457638888889</v>
+        <v>45729.457638888889</v>
       </c>
       <c r="B154">
-        <v>0.42083459585405608</v>
+        <v>0.33411529306240728</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>45708.456944444442</v>
+        <v>45729.456944444442</v>
       </c>
       <c r="B155">
-        <v>0.41804081163539097</v>
+        <v>0.32912287978062982</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>45708.456250000003</v>
+        <v>45729.456250000003</v>
       </c>
       <c r="B156">
-        <v>0.41643305679775983</v>
+        <v>0.32383077522904219</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>45708.455555555563</v>
+        <v>45729.455555555563</v>
       </c>
       <c r="B157">
-        <v>0.41471546265724912</v>
+        <v>0.31943398630054348</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>45708.454861111109</v>
+        <v>45729.454861111109</v>
       </c>
       <c r="B158">
-        <v>0.41212085196639781</v>
+        <v>0.31562877444772491</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>45708.45416666667</v>
+        <v>45729.45416666667</v>
       </c>
       <c r="B159">
-        <v>0.40962145275212097</v>
+        <v>0.31242670332086842</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>45708.453472222223</v>
+        <v>45729.453472222223</v>
       </c>
       <c r="B160">
-        <v>0.40727512329167892</v>
+        <v>0.3091330866292788</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>45708.452777777777</v>
+        <v>45729.452777777777</v>
       </c>
       <c r="B161">
-        <v>0.40497711790028001</v>
+        <v>0.3062975832163638</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>45708.45208333333</v>
+        <v>45729.45208333333</v>
       </c>
       <c r="B162">
-        <v>0.40148407134199859</v>
+        <v>0.30378730746763188</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>45708.451388888891</v>
+        <v>45729.451388888891</v>
       </c>
       <c r="B163">
-        <v>0.39787661428511722</v>
+        <v>0.29973675350132878</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>45708.450694444437</v>
+        <v>45729.450694444437</v>
       </c>
       <c r="B164">
-        <v>0.39595305512600831</v>
+        <v>0.29678676995062131</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>45708.45</v>
+        <v>45729.45</v>
       </c>
       <c r="B165">
-        <v>0.39387512015714471</v>
+        <v>0.29366737892328149</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>45708.449305555558</v>
+        <v>45729.449305555558</v>
       </c>
       <c r="B166">
-        <v>0.39129905546035859</v>
+        <v>0.29060301159853402</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>45708.448611111111</v>
+        <v>45729.448611111111</v>
       </c>
       <c r="B167">
-        <v>0.38905146382747519</v>
+        <v>0.28739843501411633</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>45708.447916666657</v>
+        <v>45729.447916666657</v>
       </c>
       <c r="B168">
-        <v>0.38628249467129178</v>
+        <v>0.28253235461167048</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>45708.447222222218</v>
+        <v>45729.447222222218</v>
       </c>
       <c r="B169">
-        <v>0.38341008588623732</v>
+        <v>0.27821651123514618</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>45708.446527777778</v>
+        <v>45729.446527777778</v>
       </c>
       <c r="B170">
-        <v>0.38073737305136462</v>
+        <v>0.27489292541657567</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>45708.445833333331</v>
+        <v>45729.445833333331</v>
       </c>
       <c r="B171">
-        <v>0.37827023341831412</v>
+        <v>0.27153204682584547</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>45708.445138888892</v>
+        <v>45729.445138888892</v>
       </c>
       <c r="B172">
-        <v>0.37551354118777952</v>
+        <v>0.26776335683516772</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>45708.444444444453</v>
+        <v>45729.444444444453</v>
       </c>
       <c r="B173">
-        <v>0.37380430580515728</v>
+        <v>0.2646091784932294</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>45708.443749999999</v>
+        <v>45729.443749999999</v>
       </c>
       <c r="B174">
-        <v>0.37137295210431731</v>
+        <v>0.25984832730835028</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45708.443055555559</v>
+        <v>45729.443055555559</v>
       </c>
       <c r="B175">
-        <v>0.3690556170853011</v>
+        <v>0.25585404977341991</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45708.442361111112</v>
+        <v>45729.442361111112</v>
       </c>
       <c r="B176">
-        <v>0.36621207213608059</v>
+        <v>0.25171956297881942</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45708.441666666673</v>
+        <v>45729.441666666673</v>
       </c>
       <c r="B177">
-        <v>0.36407040163831661</v>
+        <v>0.24756223797491189</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45708.440972222219</v>
+        <v>45729.440972222219</v>
       </c>
       <c r="B178">
-        <v>0.36144065804321479</v>
+        <v>0.2447131472729154</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45708.44027777778</v>
+        <v>45729.44027777778</v>
       </c>
       <c r="B179">
-        <v>0.35907369289923519</v>
+        <v>0.24233248077109501</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45708.439583333333</v>
+        <v>45729.439583333333</v>
       </c>
       <c r="B180">
-        <v>0.35683119488444021</v>
+        <v>0.23954978469446811</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45708.438888888893</v>
+        <v>45729.438888888893</v>
       </c>
       <c r="B181">
-        <v>0.35490750511973918</v>
+        <v>0.2354655997785946</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45708.438194444447</v>
+        <v>45729.438194444447</v>
       </c>
       <c r="B182">
-        <v>0.35229722175784678</v>
+        <v>0.23043724281719041</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45708.4375</v>
+        <v>45729.4375</v>
       </c>
       <c r="B183">
-        <v>0.34894875558991928</v>
+        <v>0.22712406428387369</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45708.436805555553</v>
+        <v>45729.436805555553</v>
       </c>
       <c r="B184">
-        <v>0.34638078843983777</v>
+        <v>0.223627794621091</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45708.436111111107</v>
+        <v>45729.436111111107</v>
       </c>
       <c r="B185">
-        <v>0.34315234881096668</v>
+        <v>0.21976274087806269</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45708.435416666667</v>
+        <v>45729.435416666667</v>
       </c>
       <c r="B186">
-        <v>0.33985077005057052</v>
+        <v>0.213903535643892</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45708.43472222222</v>
+        <v>45729.43472222222</v>
       </c>
       <c r="B187">
-        <v>0.33711941530488571</v>
+        <v>0.2112422578952268</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45708.434027777781</v>
+        <v>45729.434027777781</v>
       </c>
       <c r="B188">
-        <v>0.33439328478288127</v>
+        <v>0.20859389288937649</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45708.433333333327</v>
+        <v>45729.433333333327</v>
       </c>
       <c r="B189">
-        <v>0.33212636352238062</v>
+        <v>0.20603418253568881</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45708.432638888888</v>
+        <v>45729.432638888888</v>
       </c>
       <c r="B190">
-        <v>0.3282523404522088</v>
+        <v>0.20349634675378461</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45708.431944444441</v>
+        <v>45729.431944444441</v>
       </c>
       <c r="B191">
-        <v>0.32520047958373388</v>
+        <v>0.20122389674585389</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45708.431250000001</v>
+        <v>45729.431250000001</v>
       </c>
       <c r="B192">
-        <v>0.32222410874744012</v>
+        <v>0.19659891845178909</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45708.430555555547</v>
+        <v>45729.430555555547</v>
       </c>
       <c r="B193">
-        <v>0.31843053872194588</v>
+        <v>0.19524683864255851</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45708.429861111108</v>
+        <v>45729.429861111108</v>
       </c>
       <c r="B194">
-        <v>0.31505947778660093</v>
+        <v>0.19320710709655439</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45708.429166666669</v>
+        <v>45729.429166666669</v>
       </c>
       <c r="B195">
-        <v>0.31208506603418729</v>
+        <v>0.18859851064038921</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45708.428472222222</v>
+        <v>45729.428472222222</v>
       </c>
       <c r="B196">
-        <v>0.30777037969657711</v>
+        <v>0.18859851064038921</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45708.427777777782</v>
+        <v>45729.427777777782</v>
       </c>
       <c r="B197">
-        <v>0.30488817549212188</v>
+        <v>0.18387774677648791</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45708.427083333343</v>
+        <v>45729.427083333343</v>
       </c>
       <c r="B198">
-        <v>0.30102786600911102</v>
+        <v>0.1833337733944691</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45708.426388888889</v>
+        <v>45729.426388888889</v>
       </c>
       <c r="B199">
-        <v>0.29710395160279179</v>
+        <v>0.1798967674393819</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45708.425694444442</v>
+        <v>45729.425694444442</v>
       </c>
       <c r="B200">
-        <v>0.29458039035399342</v>
+        <v>0.17557437132769779</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>45708.425000000003</v>
+        <v>45729.425000000003</v>
       </c>
       <c r="B201">
-        <v>0.29105260270823757</v>
+        <v>0.17268056784461069</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>45708.424305555563</v>
+        <v>45729.424305555563</v>
       </c>
       <c r="B202">
-        <v>0.28745180653654873</v>
+        <v>0.1681602405855987</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>45708.423611111109</v>
+        <v>45729.423611111109</v>
       </c>
       <c r="B203">
-        <v>0.28440151293517779</v>
+        <v>0.16623778372620521</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>45708.42291666667</v>
+        <v>45729.42291666667</v>
       </c>
       <c r="B204">
-        <v>0.28093406507293017</v>
+        <v>0.1631511563746646</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>45708.422222222223</v>
+        <v>45729.422222222223</v>
       </c>
       <c r="B205">
-        <v>0.27701615852384343</v>
+        <v>0.16119092492434961</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>45708.421527777777</v>
+        <v>45729.421527777777</v>
       </c>
       <c r="B206">
-        <v>0.27357613783591761</v>
+        <v>0.15821222497544171</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>45708.42083333333</v>
+        <v>45729.42083333333</v>
       </c>
       <c r="B207">
-        <v>0.2709432597066076</v>
+        <v>0.1555212671910525</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>45708.420138888891</v>
+        <v>45729.420138888891</v>
       </c>
       <c r="B208">
-        <v>0.26816776027082367</v>
+        <v>0.15295596773972839</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>45708.419444444437</v>
+        <v>45729.419444444437</v>
       </c>
       <c r="B209">
-        <v>0.26419682785138132</v>
+        <v>0.1507117523112364</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>45708.418749999997</v>
+        <v>45729.418749999997</v>
       </c>
       <c r="B210">
-        <v>0.26057186964517071</v>
+        <v>0.14850984057002631</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>45708.418055555558</v>
+        <v>45729.418055555558</v>
       </c>
       <c r="B211">
-        <v>0.25742323003301709</v>
+        <v>0.14604668669619381</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>45708.417361111111</v>
+        <v>45729.417361111111</v>
       </c>
       <c r="B212">
-        <v>0.25338503573368998</v>
+        <v>0.14366920019820101</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>45708.416666666657</v>
+        <v>45729.416666666657</v>
       </c>
       <c r="B213">
-        <v>0.2503963879717474</v>
+        <v>0.14181342705543401</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>45708.415972222218</v>
+        <v>45729.415972222218</v>
       </c>
       <c r="B214">
-        <v>0.24767600409579141</v>
+        <v>0.13983074285082139</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>45708.415277777778</v>
+        <v>45729.415277777778</v>
       </c>
       <c r="B215">
-        <v>0.24445527019684879</v>
+        <v>0.1373753944409293</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>45708.414583333331</v>
+        <v>45729.414583333331</v>
       </c>
       <c r="B216">
-        <v>0.24174768566890961</v>
+        <v>0.135245466422725</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>45708.413888888892</v>
+        <v>45729.413888888892</v>
       </c>
       <c r="B217">
-        <v>0.2370430110335604</v>
+        <v>0.13211354810757969</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>45708.413194444453</v>
+        <v>45729.413194444453</v>
       </c>
       <c r="B218">
-        <v>0.23433007167634889</v>
+        <v>0.1295243504456727</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>45708.412499999999</v>
+        <v>45729.412499999999</v>
       </c>
       <c r="B219">
-        <v>0.23182257491536759</v>
+        <v>0.12698622557251149</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>45708.411805555559</v>
+        <v>45729.411805555559</v>
       </c>
       <c r="B220">
-        <v>0.22859635558156061</v>
+        <v>0.1241911949355837</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>45708.411111111112</v>
+        <v>45729.411111111112</v>
       </c>
       <c r="B221">
-        <v>0.2233908085008568</v>
+        <v>0.12141919523546769</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>45708.410416666673</v>
+        <v>45729.410416666673</v>
       </c>
       <c r="B222">
-        <v>0.21997416621390059</v>
+        <v>0.1188911885563033</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>45708.409722222219</v>
+        <v>45729.409722222219</v>
       </c>
       <c r="B223">
-        <v>0.2168768545994065</v>
+        <v>0.1163807200800667</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>45708.40902777778</v>
+        <v>45729.40902777778</v>
       </c>
       <c r="B224">
-        <v>0.2124448844401722</v>
+        <v>0.11379094423564561</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>45708.408333333333</v>
+        <v>45729.408333333333</v>
       </c>
       <c r="B225">
-        <v>0.2086746928156476</v>
+        <v>0.1107110623467696</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>45708.407638888893</v>
+        <v>45729.407638888893</v>
       </c>
       <c r="B226">
-        <v>0.20369013039662309</v>
+        <v>0.1088921001574006</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>45708.406944444447</v>
+        <v>45729.406944444447</v>
       </c>
       <c r="B227">
-        <v>0.19963456555355871</v>
+        <v>0.1063507952804118</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>45708.40625</v>
+        <v>45729.40625</v>
       </c>
       <c r="B228">
-        <v>0.19669189096000331</v>
+        <v>0.1043516328741472</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>45708.405555555553</v>
+        <v>45729.405555555553</v>
       </c>
       <c r="B229">
-        <v>0.19294742863710451</v>
+        <v>0.1018868408165248</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>45708.404861111107</v>
+        <v>45729.404861111107</v>
       </c>
       <c r="B230">
-        <v>0.18869282087181841</v>
+        <v>0.1000878259238923</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>45708.404166666667</v>
+        <v>45729.404166666667</v>
       </c>
       <c r="B231">
-        <v>0.18501888556860449</v>
+        <v>9.7827517748757725E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>45708.40347222222</v>
+        <v>45729.40347222222</v>
       </c>
       <c r="B232">
-        <v>0.18144695323274959</v>
+        <v>9.5523267702551304E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>45708.402777777781</v>
+        <v>45729.402777777781</v>
       </c>
       <c r="B233">
-        <v>0.1767877293434196</v>
+        <v>9.3067148382640422E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>45708.402083333327</v>
+        <v>45729.402083333327</v>
       </c>
       <c r="B234">
-        <v>0.17088749111881971</v>
+        <v>8.9137723653041928E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>45708.401388888888</v>
+        <v>45729.401388888888</v>
       </c>
       <c r="B235">
-        <v>0.16296626196347219</v>
+        <v>8.6278900212058071E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>45708.400694444441</v>
+        <v>45729.400694444441</v>
       </c>
       <c r="B236">
-        <v>0.1563601005140636</v>
+        <v>8.3909700996767381E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>45708.4</v>
+        <v>45729.4</v>
       </c>
       <c r="B237">
-        <v>0.15034140301751159</v>
+        <v>8.0804860896032574E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>45708.399305555547</v>
+        <v>45729.399305555547</v>
       </c>
       <c r="B238">
-        <v>0.14409701905796801</v>
+        <v>7.8727258395354646E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>45708.398611111108</v>
+        <v>45729.398611111108</v>
       </c>
       <c r="B239">
-        <v>0.13946130417519961</v>
+        <v>7.6250517232440737E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>45708.397916666669</v>
+        <v>45729.397916666669</v>
       </c>
       <c r="B240">
-        <v>0.13417896100639451</v>
+        <v>7.361554678816723E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>45708.397222222222</v>
+        <v>45729.397222222222</v>
       </c>
       <c r="B241">
-        <v>0.129296532160321</v>
+        <v>7.1148538364240718E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>45708.396527777782</v>
+        <v>45729.396527777782</v>
       </c>
       <c r="B242">
-        <v>0.1242115340410415</v>
+        <v>6.8153360213680833E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>45708.395833333343</v>
+        <v>45729.395833333343</v>
       </c>
       <c r="B243">
-        <v>0.1189024167258745</v>
+        <v>6.4874968994962687E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>45708.395138888889</v>
+        <v>45729.395138888889</v>
       </c>
       <c r="B244">
-        <v>0.11372743135370079</v>
+        <v>6.1843654437271342E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>45708.394444444442</v>
+        <v>45729.394444444442</v>
       </c>
       <c r="B245">
-        <v>0.10757185919672339</v>
+        <v>5.8381112087811278E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>45708.393750000003</v>
+        <v>45729.393750000003</v>
       </c>
       <c r="B246">
-        <v>0.1029488130563798</v>
+        <v>5.5221537375741349E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>45708.393055555563</v>
+        <v>45729.393055555563</v>
       </c>
       <c r="B247">
-        <v>9.7428114682158229E-2</v>
+        <v>5.2103013622172761E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>45708.392361111109</v>
+        <v>45729.392361111109</v>
       </c>
       <c r="B248">
-        <v>9.27575281063234E-2</v>
+        <v>4.8815467846981299E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>45708.39166666667</v>
+        <v>45729.39166666667</v>
       </c>
       <c r="B249">
-        <v>8.856874555940987E-2</v>
+        <v>4.4725019287205042E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>45708.390972222223</v>
+        <v>45729.390972222223</v>
       </c>
       <c r="B250">
-        <v>8.4260589501400099E-2</v>
+        <v>4.0626861627240718E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>45708.390277777777</v>
+        <v>45729.390277777777</v>
       </c>
       <c r="B251">
-        <v>7.7898399297864337E-2</v>
+        <v>3.7514601517574922E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>45708.38958333333</v>
+        <v>45729.38958333333</v>
       </c>
       <c r="B252">
-        <v>7.0232373469302459E-2</v>
+        <v>3.3258021848746301E-2</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>45708.388888888891</v>
+        <v>45729.388888888891</v>
       </c>
       <c r="B253">
-        <v>6.2266346595895847E-2</v>
+        <v>2.8606639886537461E-2</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>45708.388194444437</v>
+        <v>45729.388194444437</v>
       </c>
       <c r="B254">
-        <v>5.6127622560287541E-2</v>
+        <v>2.4060776233152489E-2</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>45708.387499999997</v>
+        <v>45729.387499999997</v>
       </c>
       <c r="B255">
-        <v>4.9550455552304917E-2</v>
+        <v>2.0649692127447619E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>45708.386805555558</v>
+        <v>45729.386805555558</v>
       </c>
       <c r="B256">
-        <v>4.1832579303715471E-2</v>
+        <v>1.7488671959092431E-2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>45708.386111111111</v>
+        <v>45729.386111111111</v>
       </c>
       <c r="B257">
-        <v>3.4995115350858863E-2</v>
+        <v>1.473671591946534E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>45708.385416666657</v>
+        <v>45729.385416666657</v>
       </c>
       <c r="B258">
-        <v>2.9342374723116141E-2</v>
+        <v>1.192164162204864E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>45708.384722222218</v>
+        <v>45729.384722222218</v>
       </c>
       <c r="B259">
-        <v>1.133708780875162E-2</v>
+        <v>4.4002580235832939E-3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>45708.384027777778</v>
+        <v>45729.384027777778</v>
       </c>
       <c r="B260">
-        <v>1.063873970827935E-2</v>
+        <v>4.1371849796662842E-3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>45708.383333333331</v>
+        <v>45729.383333333331</v>
       </c>
       <c r="B261">
-        <v>9.90003447987629E-3</v>
+        <v>3.9713429618709831E-3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>45708.382638888892</v>
+        <v>45729.382638888892</v>
       </c>
       <c r="B262">
-        <v>8.3300246583357714E-3</v>
+        <v>3.8259300595739989E-3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>45708.381944444453</v>
+        <v>45729.381944444453</v>
       </c>
       <c r="B263">
-        <v>7.0043778994441424E-3</v>
+        <v>3.5960061464655798E-3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>45708.381249999999</v>
+        <v>45729.381249999999</v>
       </c>
       <c r="B264">
-        <v>6.0160853847118318E-3</v>
+        <v>3.4321877674696401E-3</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>45708.380555555559</v>
+        <v>45729.380555555559</v>
       </c>
       <c r="B265">
-        <v>5.5208289798135994E-3</v>
+        <v>3.2294384325240772E-3</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>45708.379861111112</v>
+        <v>45729.379861111112</v>
       </c>
       <c r="B266">
-        <v>5.0053287081539676E-3</v>
+        <v>3.0167636310864071E-3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>45708.379166666673</v>
+        <v>45729.379166666673</v>
       </c>
       <c r="B267">
-        <v>4.3661449408617884E-3</v>
+        <v>2.7147596312197741E-3</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>45708.378472222219</v>
+        <v>45729.378472222219</v>
       </c>
       <c r="B268">
-        <v>3.4256540728047811E-3</v>
+        <v>2.2853627507457108E-3</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>45708.37777777778</v>
+        <v>45729.37777777778</v>
       </c>
       <c r="B269">
-        <v>2.908325322857023E-3</v>
+        <v>2.0315406270543551E-3</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>45708.377083333333</v>
+        <v>45729.377083333333</v>
       </c>
       <c r="B270">
-        <v>1.9837683370251178E-3</v>
+        <v>1.871384070647736E-3</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>45708.376388888893</v>
+        <v>45729.376388888893</v>
       </c>
       <c r="B271">
-        <v>9.7771346177957948E-4</v>
+        <v>1.7715512232125629E-3</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>45708.375694444447</v>
+        <v>45729.375694444447</v>
       </c>
       <c r="B272">
-        <v>5.1772056672378481E-4</v>
+        <v>1.4515272016563769E-3</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>45708.375</v>
+        <v>45729.375</v>
       </c>
       <c r="B273">
-        <v>2.5559514356166669E-4</v>
+        <v>1.032152151426771E-3</v>
       </c>
     </row>
   </sheetData>
